--- a/original_data/2016/South East Crime Report 2016.xlsx
+++ b/original_data/2016/South East Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="11295" windowHeight="5325" tabRatio="878" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="11295" windowHeight="5325" tabRatio="878" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="29" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="104">
   <si>
     <t>LOCATION</t>
   </si>
@@ -332,6 +332,24 @@
   <si>
     <t>TOTAL INCIDENTS - 34</t>
   </si>
+  <si>
+    <t>TOTAL INCIDENTS - 26</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 36</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 35</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 29</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 20</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 21</t>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -605,6 +623,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,22 +891,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,10 +1304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1339,7 @@
       </c>
       <c r="B2" s="23">
         <f>SUM(C2:J2)</f>
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="C2" s="21">
         <f>'Annual Totals'!C2</f>
@@ -1312,27 +1351,27 @@
       </c>
       <c r="E2" s="21">
         <f>'Annual Totals'!E2</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="21">
         <f>'Annual Totals'!F2</f>
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="G2" s="21">
         <f>'Annual Totals'!G2</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H2" s="21">
         <f>'Annual Totals'!H2</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I2" s="21">
         <f>'Annual Totals'!I2</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J2" s="30">
         <f>'Annual Totals'!J2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1389,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,10 +1406,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -1397,10 +1436,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -1411,23 +1450,23 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -1435,32 +1474,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1574,8 +1613,8 @@
       <c r="E10" s="35">
         <v>0</v>
       </c>
-      <c r="F10" s="35">
-        <v>0</v>
+      <c r="F10" s="43">
+        <v>1</v>
       </c>
       <c r="G10" s="35">
         <v>0</v>
@@ -1606,8 +1645,8 @@
       <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
+      <c r="F11" s="43">
+        <v>1</v>
       </c>
       <c r="G11" s="35">
         <v>0</v>
@@ -1734,17 +1773,17 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
+      <c r="F15" s="43">
+        <v>8</v>
+      </c>
+      <c r="G15" s="43">
+        <v>1</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
       </c>
-      <c r="I15" s="35">
-        <v>0</v>
+      <c r="I15" s="43">
+        <v>2</v>
       </c>
       <c r="J15" s="35">
         <v>0</v>
@@ -1766,8 +1805,8 @@
       <c r="E16" s="35">
         <v>0</v>
       </c>
-      <c r="F16" s="35">
-        <v>0</v>
+      <c r="F16" s="43">
+        <v>1</v>
       </c>
       <c r="G16" s="35">
         <v>0</v>
@@ -1798,8 +1837,8 @@
       <c r="E17" s="35">
         <v>0</v>
       </c>
-      <c r="F17" s="35">
-        <v>0</v>
+      <c r="F17" s="43">
+        <v>2</v>
       </c>
       <c r="G17" s="35">
         <v>0</v>
@@ -1900,8 +1939,8 @@
       <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="35">
-        <v>0</v>
+      <c r="H20" s="43">
+        <v>2</v>
       </c>
       <c r="I20" s="35">
         <v>0</v>
@@ -1929,8 +1968,8 @@
       <c r="F21" s="35">
         <v>0</v>
       </c>
-      <c r="G21" s="35">
-        <v>0</v>
+      <c r="G21" s="43">
+        <v>1</v>
       </c>
       <c r="H21" s="35">
         <v>0</v>
@@ -1958,8 +1997,8 @@
       <c r="E22" s="35">
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
+      <c r="F22" s="43">
+        <v>1</v>
       </c>
       <c r="G22" s="35">
         <v>0</v>
@@ -1987,11 +2026,11 @@
       <c r="D23" s="35">
         <v>0</v>
       </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
+      <c r="E23" s="43">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43">
+        <v>2</v>
       </c>
       <c r="G23" s="35">
         <v>0</v>
@@ -2182,8 +2221,8 @@
       <c r="E29" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="35">
-        <v>0</v>
+      <c r="F29" s="43">
+        <v>1</v>
       </c>
       <c r="G29" s="35">
         <v>0</v>
@@ -2214,8 +2253,8 @@
       <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
+      <c r="F30" s="43">
+        <v>2</v>
       </c>
       <c r="G30" s="35">
         <v>0</v>
@@ -2252,8 +2291,8 @@
       <c r="G31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="35">
-        <v>0</v>
+      <c r="H31" s="43">
+        <v>1</v>
       </c>
       <c r="I31" s="35">
         <v>0</v>
@@ -2278,8 +2317,8 @@
       <c r="E32" s="26">
         <v>0</v>
       </c>
-      <c r="F32" s="26">
-        <v>0</v>
+      <c r="F32" s="43">
+        <v>1</v>
       </c>
       <c r="G32" s="26">
         <v>0</v>
@@ -2295,18 +2334,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -2388,8 +2427,8 @@
       <c r="E36" s="34">
         <v>0</v>
       </c>
-      <c r="F36" s="34">
-        <v>0</v>
+      <c r="F36" s="43">
+        <v>1</v>
       </c>
       <c r="G36" s="34">
         <v>0</v>
@@ -2487,8 +2526,8 @@
       <c r="F39" s="35">
         <v>0</v>
       </c>
-      <c r="G39" s="35">
-        <v>0</v>
+      <c r="G39" s="43">
+        <v>1</v>
       </c>
       <c r="H39" s="35">
         <v>0</v>
@@ -2516,8 +2555,8 @@
       <c r="E40" s="35">
         <v>0</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
+      <c r="F40" s="43">
+        <v>1</v>
       </c>
       <c r="G40" s="35">
         <v>0</v>
@@ -2548,8 +2587,8 @@
       <c r="E41" s="35">
         <v>0</v>
       </c>
-      <c r="F41" s="35">
-        <v>0</v>
+      <c r="F41" s="43">
+        <v>2</v>
       </c>
       <c r="G41" s="35">
         <v>0</v>
@@ -2583,8 +2622,8 @@
       <c r="F42" s="35">
         <v>0</v>
       </c>
-      <c r="G42" s="35">
-        <v>0</v>
+      <c r="G42" s="43">
+        <v>2</v>
       </c>
       <c r="H42" s="35">
         <v>0</v>
@@ -2661,8 +2700,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -2694,7 +2733,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -2706,23 +2745,23 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
@@ -2748,7 +2787,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:H44"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2765,10 +2804,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -2795,10 +2834,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -2813,19 +2852,19 @@
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -2833,32 +2872,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -2972,8 +3011,8 @@
       <c r="E10" s="35">
         <v>0</v>
       </c>
-      <c r="F10" s="35">
-        <v>0</v>
+      <c r="F10" s="44">
+        <v>1</v>
       </c>
       <c r="G10" s="35">
         <v>0</v>
@@ -3132,11 +3171,11 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
+      <c r="F15" s="44">
+        <v>4</v>
+      </c>
+      <c r="G15" s="44">
+        <v>1</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
@@ -3324,8 +3363,8 @@
       <c r="E21" s="35">
         <v>0</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
+      <c r="F21" s="44">
+        <v>1</v>
       </c>
       <c r="G21" s="35">
         <v>0</v>
@@ -3333,8 +3372,8 @@
       <c r="H21" s="35">
         <v>0</v>
       </c>
-      <c r="I21" s="35">
-        <v>0</v>
+      <c r="I21" s="44">
+        <v>1</v>
       </c>
       <c r="J21" s="35">
         <v>0</v>
@@ -3356,8 +3395,8 @@
       <c r="E22" s="35">
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
+      <c r="F22" s="44">
+        <v>2</v>
       </c>
       <c r="G22" s="35">
         <v>0</v>
@@ -3423,8 +3462,8 @@
       <c r="F24" s="35">
         <v>0</v>
       </c>
-      <c r="G24" s="35">
-        <v>0</v>
+      <c r="G24" s="44">
+        <v>2</v>
       </c>
       <c r="H24" s="35">
         <v>0</v>
@@ -3551,8 +3590,8 @@
       <c r="F28" s="35">
         <v>0</v>
       </c>
-      <c r="G28" s="35">
-        <v>0</v>
+      <c r="G28" s="44">
+        <v>1</v>
       </c>
       <c r="H28" s="35">
         <v>0</v>
@@ -3583,8 +3622,8 @@
       <c r="F29" s="35">
         <v>0</v>
       </c>
-      <c r="G29" s="35">
-        <v>0</v>
+      <c r="G29" s="44">
+        <v>1</v>
       </c>
       <c r="H29" s="35">
         <v>0</v>
@@ -3612,11 +3651,11 @@
       <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35">
-        <v>0</v>
+      <c r="F30" s="44">
+        <v>3</v>
+      </c>
+      <c r="G30" s="44">
+        <v>1</v>
       </c>
       <c r="H30" s="35">
         <v>0</v>
@@ -3693,18 +3732,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -3789,8 +3828,8 @@
       <c r="F36" s="34">
         <v>0</v>
       </c>
-      <c r="G36" s="34">
-        <v>0</v>
+      <c r="G36" s="44">
+        <v>2</v>
       </c>
       <c r="H36" s="34">
         <v>0</v>
@@ -3824,8 +3863,8 @@
       <c r="G37" s="34">
         <v>0</v>
       </c>
-      <c r="H37" s="34">
-        <v>0</v>
+      <c r="H37" s="44">
+        <v>1</v>
       </c>
       <c r="I37" s="26">
         <v>0</v>
@@ -3850,8 +3889,8 @@
       <c r="E38" s="26">
         <v>0</v>
       </c>
-      <c r="F38" s="34">
-        <v>0</v>
+      <c r="F38" s="44">
+        <v>1</v>
       </c>
       <c r="G38" s="34">
         <v>0</v>
@@ -3914,17 +3953,17 @@
       <c r="E40" s="35">
         <v>0</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35">
-        <v>0</v>
-      </c>
-      <c r="I40" s="35">
-        <v>0</v>
+      <c r="F40" s="44">
+        <v>3</v>
+      </c>
+      <c r="G40" s="44">
+        <v>1</v>
+      </c>
+      <c r="H40" s="44">
+        <v>1</v>
+      </c>
+      <c r="I40" s="44">
+        <v>1</v>
       </c>
       <c r="J40" s="35">
         <v>0</v>
@@ -3949,8 +3988,8 @@
       <c r="F41" s="35">
         <v>0</v>
       </c>
-      <c r="G41" s="35">
-        <v>0</v>
+      <c r="G41" s="44">
+        <v>1</v>
       </c>
       <c r="H41" s="35">
         <v>0</v>
@@ -3978,8 +4017,8 @@
       <c r="E42" s="35">
         <v>0</v>
       </c>
-      <c r="F42" s="35">
-        <v>0</v>
+      <c r="F42" s="44">
+        <v>2</v>
       </c>
       <c r="G42" s="35">
         <v>0</v>
@@ -4059,8 +4098,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -4092,7 +4131,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -4108,19 +4147,19 @@
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
@@ -4146,7 +4185,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J31"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4163,10 +4202,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -4193,10 +4232,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -4207,56 +4246,56 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -4338,8 +4377,8 @@
       <c r="E9" s="35">
         <v>0</v>
       </c>
-      <c r="F9" s="35">
-        <v>0</v>
+      <c r="F9" s="45">
+        <v>2</v>
       </c>
       <c r="G9" s="35">
         <v>0</v>
@@ -4466,8 +4505,8 @@
       <c r="E13" s="35">
         <v>0</v>
       </c>
-      <c r="F13" s="35">
-        <v>0</v>
+      <c r="F13" s="45">
+        <v>1</v>
       </c>
       <c r="G13" s="35">
         <v>0</v>
@@ -4530,20 +4569,20 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
+      <c r="F15" s="45">
+        <v>7</v>
+      </c>
+      <c r="G15" s="45">
+        <v>2</v>
+      </c>
+      <c r="H15" s="45">
+        <v>1</v>
       </c>
       <c r="I15" s="35">
         <v>0</v>
       </c>
-      <c r="J15" s="35">
-        <v>0</v>
+      <c r="J15" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4597,8 +4636,8 @@
       <c r="F17" s="35">
         <v>0</v>
       </c>
-      <c r="G17" s="35">
-        <v>0</v>
+      <c r="G17" s="45">
+        <v>1</v>
       </c>
       <c r="H17" s="35">
         <v>0</v>
@@ -4690,8 +4729,8 @@
       <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="35">
-        <v>0</v>
+      <c r="F20" s="45">
+        <v>2</v>
       </c>
       <c r="G20" s="35">
         <v>0</v>
@@ -4722,8 +4761,8 @@
       <c r="E21" s="35">
         <v>0</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
+      <c r="F21" s="45">
+        <v>1</v>
       </c>
       <c r="G21" s="35">
         <v>0</v>
@@ -4760,8 +4799,8 @@
       <c r="G22" s="35">
         <v>0</v>
       </c>
-      <c r="H22" s="35">
-        <v>0</v>
+      <c r="H22" s="45">
+        <v>2</v>
       </c>
       <c r="I22" s="35">
         <v>0</v>
@@ -4786,8 +4825,8 @@
       <c r="E23" s="35">
         <v>0</v>
       </c>
-      <c r="F23" s="35">
-        <v>0</v>
+      <c r="F23" s="45">
+        <v>1</v>
       </c>
       <c r="G23" s="35">
         <v>0</v>
@@ -4815,11 +4854,11 @@
       <c r="D24" s="35">
         <v>0</v>
       </c>
-      <c r="E24" s="35">
-        <v>0</v>
-      </c>
-      <c r="F24" s="35">
-        <v>0</v>
+      <c r="E24" s="45">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45">
+        <v>2</v>
       </c>
       <c r="G24" s="35">
         <v>0</v>
@@ -4978,8 +5017,8 @@
       <c r="E29" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="35">
-        <v>0</v>
+      <c r="F29" s="45">
+        <v>1</v>
       </c>
       <c r="G29" s="35">
         <v>0</v>
@@ -5010,8 +5049,8 @@
       <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
+      <c r="F30" s="45">
+        <v>1</v>
       </c>
       <c r="G30" s="35">
         <v>0</v>
@@ -5091,18 +5130,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -5187,8 +5226,8 @@
       <c r="F36" s="34">
         <v>0</v>
       </c>
-      <c r="G36" s="34">
-        <v>0</v>
+      <c r="G36" s="45">
+        <v>1</v>
       </c>
       <c r="H36" s="34">
         <v>0</v>
@@ -5216,8 +5255,8 @@
       <c r="E37" s="34">
         <v>0</v>
       </c>
-      <c r="F37" s="34">
-        <v>0</v>
+      <c r="F37" s="45">
+        <v>1</v>
       </c>
       <c r="G37" s="34">
         <v>0</v>
@@ -5289,8 +5328,8 @@
       <c r="H39" s="34">
         <v>0</v>
       </c>
-      <c r="I39" s="34">
-        <v>0</v>
+      <c r="I39" s="45">
+        <v>1</v>
       </c>
       <c r="J39" s="26">
         <v>0</v>
@@ -5321,8 +5360,8 @@
       <c r="H40" s="34">
         <v>0</v>
       </c>
-      <c r="I40" s="34">
-        <v>0</v>
+      <c r="I40" s="45">
+        <v>1</v>
       </c>
       <c r="J40" s="26">
         <v>0</v>
@@ -5344,8 +5383,8 @@
       <c r="E41" s="35">
         <v>0</v>
       </c>
-      <c r="F41" s="35">
-        <v>0</v>
+      <c r="F41" s="45">
+        <v>1</v>
       </c>
       <c r="G41" s="35">
         <v>0</v>
@@ -5373,11 +5412,11 @@
       <c r="D42" s="35">
         <v>0</v>
       </c>
-      <c r="E42" s="35">
-        <v>0</v>
-      </c>
-      <c r="F42" s="35">
-        <v>0</v>
+      <c r="E42" s="45">
+        <v>1</v>
+      </c>
+      <c r="F42" s="45">
+        <v>1</v>
       </c>
       <c r="G42" s="35">
         <v>0</v>
@@ -5385,8 +5424,8 @@
       <c r="H42" s="35">
         <v>0</v>
       </c>
-      <c r="I42" s="35">
-        <v>0</v>
+      <c r="I42" s="45">
+        <v>1</v>
       </c>
       <c r="J42" s="26">
         <v>0</v>
@@ -5457,8 +5496,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -5490,7 +5529,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -5502,27 +5541,27 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5544,7 +5583,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J30"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5561,10 +5600,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -5591,10 +5630,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -5609,19 +5648,19 @@
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -5629,32 +5668,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -5736,8 +5775,8 @@
       <c r="E9" s="28">
         <v>0</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
+      <c r="F9" s="46">
+        <v>1</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -5800,8 +5839,8 @@
       <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
+      <c r="F11" s="46">
+        <v>1</v>
       </c>
       <c r="G11" s="35">
         <v>0</v>
@@ -5899,8 +5938,8 @@
       <c r="F14" s="35">
         <v>0</v>
       </c>
-      <c r="G14" s="35">
-        <v>0</v>
+      <c r="G14" s="46">
+        <v>1</v>
       </c>
       <c r="H14" s="35">
         <v>0</v>
@@ -5928,11 +5967,11 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
@@ -6152,8 +6191,8 @@
       <c r="E22" s="35">
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
+      <c r="F22" s="46">
+        <v>2</v>
       </c>
       <c r="G22" s="35">
         <v>0</v>
@@ -6344,8 +6383,8 @@
       <c r="E28" s="35">
         <v>0</v>
       </c>
-      <c r="F28" s="35">
-        <v>0</v>
+      <c r="F28" s="46">
+        <v>1</v>
       </c>
       <c r="G28" s="35">
         <v>0</v>
@@ -6411,8 +6450,8 @@
       <c r="F30" s="35">
         <v>0</v>
       </c>
-      <c r="G30" s="35">
-        <v>0</v>
+      <c r="G30" s="46">
+        <v>1</v>
       </c>
       <c r="H30" s="35">
         <v>0</v>
@@ -6440,14 +6479,14 @@
       <c r="E31" s="26">
         <v>0</v>
       </c>
-      <c r="F31" s="31">
-        <v>0</v>
+      <c r="F31" s="46">
+        <v>2</v>
       </c>
       <c r="G31" s="31">
         <v>0</v>
       </c>
-      <c r="H31" s="26">
-        <v>0</v>
+      <c r="H31" s="46">
+        <v>1</v>
       </c>
       <c r="I31" s="26">
         <v>0</v>
@@ -6489,18 +6528,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -6620,8 +6659,8 @@
       <c r="G37" s="34">
         <v>0</v>
       </c>
-      <c r="H37" s="34">
-        <v>0</v>
+      <c r="H37" s="46">
+        <v>1</v>
       </c>
       <c r="I37" s="26">
         <v>0</v>
@@ -6655,8 +6694,8 @@
       <c r="H38" s="35">
         <v>0</v>
       </c>
-      <c r="I38" s="35">
-        <v>0</v>
+      <c r="I38" s="46">
+        <v>1</v>
       </c>
       <c r="J38" s="35">
         <v>0</v>
@@ -6678,8 +6717,8 @@
       <c r="E39" s="35">
         <v>0</v>
       </c>
-      <c r="F39" s="35">
-        <v>0</v>
+      <c r="F39" s="46">
+        <v>1</v>
       </c>
       <c r="G39" s="35">
         <v>0</v>
@@ -6710,8 +6749,8 @@
       <c r="E40" s="35">
         <v>0</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
+      <c r="F40" s="46">
+        <v>1</v>
       </c>
       <c r="G40" s="35">
         <v>0</v>
@@ -6774,8 +6813,8 @@
       <c r="E42" s="35">
         <v>0</v>
       </c>
-      <c r="F42" s="35">
-        <v>0</v>
+      <c r="F42" s="46">
+        <v>1</v>
       </c>
       <c r="G42" s="35">
         <v>0</v>
@@ -6783,8 +6822,8 @@
       <c r="H42" s="35">
         <v>0</v>
       </c>
-      <c r="I42" s="35">
-        <v>0</v>
+      <c r="I42" s="46">
+        <v>1</v>
       </c>
       <c r="J42" s="35">
         <v>0</v>
@@ -6855,8 +6894,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -6888,7 +6927,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -6904,19 +6943,19 @@
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
@@ -6941,8 +6980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:J33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6959,10 +6998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -6989,10 +7028,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -7007,19 +7046,19 @@
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -7027,32 +7066,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -7326,14 +7365,14 @@
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0</v>
+      <c r="F15" s="47">
+        <v>7</v>
+      </c>
+      <c r="G15" s="47">
+        <v>1</v>
+      </c>
+      <c r="H15" s="47">
+        <v>1</v>
       </c>
       <c r="I15" s="34">
         <v>0</v>
@@ -7367,8 +7406,8 @@
       <c r="H16" s="34">
         <v>0</v>
       </c>
-      <c r="I16" s="34">
-        <v>0</v>
+      <c r="I16" s="47">
+        <v>1</v>
       </c>
       <c r="J16" s="34">
         <v>0</v>
@@ -7390,8 +7429,8 @@
       <c r="E17" s="34">
         <v>0</v>
       </c>
-      <c r="F17" s="34">
-        <v>0</v>
+      <c r="F17" s="47">
+        <v>1</v>
       </c>
       <c r="G17" s="34">
         <v>0</v>
@@ -7550,8 +7589,8 @@
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="F22" s="34">
-        <v>0</v>
+      <c r="F22" s="47">
+        <v>1</v>
       </c>
       <c r="G22" s="34">
         <v>0</v>
@@ -7591,8 +7630,8 @@
       <c r="H23" s="34">
         <v>0</v>
       </c>
-      <c r="I23" s="34">
-        <v>0</v>
+      <c r="I23" s="47">
+        <v>1</v>
       </c>
       <c r="J23" s="34">
         <v>0</v>
@@ -7646,8 +7685,8 @@
       <c r="E25" s="34">
         <v>0</v>
       </c>
-      <c r="F25" s="34">
-        <v>0</v>
+      <c r="F25" s="47">
+        <v>1</v>
       </c>
       <c r="G25" s="34">
         <v>0</v>
@@ -7742,8 +7781,8 @@
       <c r="E28" s="34">
         <v>0</v>
       </c>
-      <c r="F28" s="34">
-        <v>0</v>
+      <c r="F28" s="47">
+        <v>1</v>
       </c>
       <c r="G28" s="34">
         <v>0</v>
@@ -7887,18 +7926,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -7980,14 +8019,14 @@
       <c r="E36" s="26">
         <v>0</v>
       </c>
-      <c r="F36" s="28">
-        <v>0</v>
+      <c r="F36" s="47">
+        <v>1</v>
       </c>
       <c r="G36" s="28">
         <v>0</v>
       </c>
-      <c r="H36" s="28">
-        <v>0</v>
+      <c r="H36" s="47">
+        <v>1</v>
       </c>
       <c r="I36" s="26">
         <v>0</v>
@@ -8108,8 +8147,8 @@
       <c r="E40" s="34">
         <v>0</v>
       </c>
-      <c r="F40" s="34">
-        <v>0</v>
+      <c r="F40" s="47">
+        <v>3</v>
       </c>
       <c r="G40" s="34">
         <v>0</v>
@@ -8172,8 +8211,8 @@
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="F42" s="34">
-        <v>0</v>
+      <c r="F42" s="47">
+        <v>1</v>
       </c>
       <c r="G42" s="34">
         <v>0</v>
@@ -8253,8 +8292,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -8286,7 +8325,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -8302,19 +8341,19 @@
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
@@ -8357,10 +8396,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
@@ -8387,10 +8426,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="18">
         <f>C46</f>
         <v>0</v>
@@ -8401,56 +8440,56 @@
       </c>
       <c r="E2" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="18">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="G2" s="18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H2" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I2" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J2" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -8545,7 +8584,7 @@
       </c>
       <c r="F9" s="12">
         <f>SUM(January:December!F9)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12">
         <f>SUM(January:December!G9)</f>
@@ -8585,7 +8624,7 @@
       </c>
       <c r="F10" s="12">
         <f>SUM(January:December!F10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="12">
         <f>SUM(January:December!G10)</f>
@@ -8625,7 +8664,7 @@
       </c>
       <c r="F11" s="12">
         <f>SUM(January:December!F11)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G11" s="12">
         <f>SUM(January:December!G11)</f>
@@ -8633,7 +8672,7 @@
       </c>
       <c r="H11" s="12">
         <f>SUM(January:December!H11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="12">
         <f>SUM(January:December!I11)</f>
@@ -8705,7 +8744,7 @@
       </c>
       <c r="F13" s="12">
         <f>SUM(January:December!F13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="12">
         <f>SUM(January:December!G13)</f>
@@ -8749,7 +8788,7 @@
       </c>
       <c r="G14" s="12">
         <f>SUM(January:December!G14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12">
         <f>SUM(January:December!H14)</f>
@@ -8785,23 +8824,23 @@
       </c>
       <c r="F15" s="12">
         <f>SUM(January:December!F15)</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G15" s="12">
         <f>SUM(January:December!G15)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15" s="12">
         <f>SUM(January:December!H15)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="12">
         <f>SUM(January:December!I15)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15" s="12">
         <f>SUM(January:December!J15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8825,7 +8864,7 @@
       </c>
       <c r="F16" s="12">
         <f>SUM(January:December!F16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
         <f>SUM(January:December!G16)</f>
@@ -8837,7 +8876,7 @@
       </c>
       <c r="I16" s="12">
         <f>SUM(January:December!I16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="12">
         <f>SUM(January:December!J16)</f>
@@ -8865,11 +8904,11 @@
       </c>
       <c r="F17" s="12">
         <f>SUM(January:December!F17)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G17" s="12">
         <f>SUM(January:December!G17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="12">
         <f>SUM(January:December!H17)</f>
@@ -8985,7 +9024,7 @@
       </c>
       <c r="F20" s="12">
         <f>SUM(January:December!F20)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="12">
         <f>SUM(January:December!G20)</f>
@@ -8993,7 +9032,7 @@
       </c>
       <c r="H20" s="12">
         <f>SUM(January:December!H20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="12">
         <f>SUM(January:December!I20)</f>
@@ -9025,11 +9064,11 @@
       </c>
       <c r="F21" s="12">
         <f>SUM(January:December!F21)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="12">
         <f>SUM(January:December!G21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12">
         <f>SUM(January:December!H21)</f>
@@ -9037,7 +9076,7 @@
       </c>
       <c r="I21" s="12">
         <f>SUM(January:December!I21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="12">
         <f>SUM(January:December!J21)</f>
@@ -9065,7 +9104,7 @@
       </c>
       <c r="F22" s="12">
         <f>SUM(January:December!F22)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G22" s="12">
         <f>SUM(January:December!G22)</f>
@@ -9073,7 +9112,7 @@
       </c>
       <c r="H22" s="12">
         <f>SUM(January:December!H22)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="12">
         <f>SUM(January:December!I22)</f>
@@ -9101,11 +9140,11 @@
       </c>
       <c r="E23" s="12">
         <f>SUM(January:December!E23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="12">
         <f>SUM(January:December!F23)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="12">
         <f>SUM(January:December!G23)</f>
@@ -9117,7 +9156,7 @@
       </c>
       <c r="I23" s="12">
         <f>SUM(January:December!I23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="12">
         <f>SUM(January:December!J23)</f>
@@ -9141,15 +9180,15 @@
       </c>
       <c r="E24" s="12">
         <f>SUM(January:December!E24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="12">
         <f>SUM(January:December!F24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="12">
         <f>SUM(January:December!G24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="12">
         <f>SUM(January:December!H24)</f>
@@ -9157,7 +9196,7 @@
       </c>
       <c r="I24" s="12">
         <f>SUM(January:December!I24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="12">
         <f>SUM(January:December!J24)</f>
@@ -9185,7 +9224,7 @@
       </c>
       <c r="F25" s="12">
         <f>SUM(January:December!F25)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="12">
         <f>SUM(January:December!G25)</f>
@@ -9305,11 +9344,11 @@
       </c>
       <c r="F28" s="12">
         <f>SUM(January:December!F28)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(January:December!G28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
         <f>SUM(January:December!H28)</f>
@@ -9345,11 +9384,11 @@
       </c>
       <c r="F29" s="12">
         <f>SUM(January:December!F29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="12">
         <f>SUM(January:December!G29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="12">
         <f>SUM(January:December!H29)</f>
@@ -9357,7 +9396,7 @@
       </c>
       <c r="I29" s="12">
         <f>SUM(January:December!I29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="12">
         <f>SUM(January:December!J29)</f>
@@ -9385,11 +9424,11 @@
       </c>
       <c r="F30" s="12">
         <f>SUM(January:December!F30)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G30" s="12">
         <f>SUM(January:December!G30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(January:December!H30)</f>
@@ -9425,7 +9464,7 @@
       </c>
       <c r="F31" s="12">
         <f>SUM(January:December!F31)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="12">
         <f>SUM(January:December!G31)</f>
@@ -9433,11 +9472,11 @@
       </c>
       <c r="H31" s="12">
         <f>SUM(January:December!H31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="12">
         <f>SUM(January:December!I31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="12">
         <f>SUM(January:December!J31)</f>
@@ -9465,7 +9504,7 @@
       </c>
       <c r="F32" s="12">
         <f>SUM(January:December!F32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="12">
         <f>SUM(January:December!G32)</f>
@@ -9485,18 +9524,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -9591,15 +9630,15 @@
       </c>
       <c r="F36" s="12">
         <f>SUM(January:December!F36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="12">
         <f>SUM(January:December!G36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="12">
         <f>SUM(January:December!H36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="12">
         <f>SUM(January:December!I36)</f>
@@ -9631,7 +9670,7 @@
       </c>
       <c r="F37" s="12">
         <f>SUM(January:December!F37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="12">
         <f>SUM(January:December!G37)</f>
@@ -9639,7 +9678,7 @@
       </c>
       <c r="H37" s="12">
         <f>SUM(January:December!H37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="12">
         <f>SUM(January:December!I37)</f>
@@ -9671,7 +9710,7 @@
       </c>
       <c r="F38" s="12">
         <f>SUM(January:December!F38)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="12">
         <f>SUM(January:December!G38)</f>
@@ -9683,7 +9722,7 @@
       </c>
       <c r="I38" s="12">
         <f>SUM(January:December!I38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="12">
         <f>SUM(January:December!J38)</f>
@@ -9711,11 +9750,11 @@
       </c>
       <c r="F39" s="12">
         <f>SUM(January:December!F39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="12">
         <f>SUM(January:December!G39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="12">
         <f>SUM(January:December!H39)</f>
@@ -9723,7 +9762,7 @@
       </c>
       <c r="I39" s="12">
         <f>SUM(January:December!I39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="12">
         <f>SUM(January:December!J39)</f>
@@ -9751,19 +9790,19 @@
       </c>
       <c r="F40" s="12">
         <f>SUM(January:December!F40)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G40" s="12">
         <f>SUM(January:December!G40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="12">
         <f>SUM(January:December!H40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="12">
         <f>SUM(January:December!I40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="12">
         <f>SUM(January:December!J40)</f>
@@ -9791,11 +9830,11 @@
       </c>
       <c r="F41" s="12">
         <f>SUM(January:December!F41)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G41" s="12">
         <f>SUM(January:December!G41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="12">
         <f>SUM(January:December!H41)</f>
@@ -9827,23 +9866,23 @@
       </c>
       <c r="E42" s="12">
         <f>SUM(January:December!E42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="12">
         <f>SUM(January:December!F42)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G42" s="12">
         <f>SUM(January:December!G42)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="12">
         <f>SUM(January:December!H42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="12">
         <f>SUM(January:December!I42)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" s="12">
         <f>SUM(January:December!J42)</f>
@@ -9931,8 +9970,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="19" t="s">
         <v>8</v>
       </c>
@@ -9964,7 +10003,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="C46" s="18">
         <f>SUM(C8:C44)</f>
@@ -9976,27 +10015,27 @@
       </c>
       <c r="E46" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46" s="18">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H46" s="32">
         <f>SUM(H8:H44)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10035,10 +10074,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
@@ -10065,10 +10104,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="13">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -10103,32 +10142,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -10963,18 +11002,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -11329,8 +11368,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="16" t="s">
         <v>8</v>
       </c>
@@ -11437,10 +11476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -11467,10 +11506,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -11505,32 +11544,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -12365,18 +12404,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -12731,8 +12770,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -12835,10 +12874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -12865,10 +12904,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -12903,32 +12942,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -13763,18 +13802,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -14129,8 +14168,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -14233,10 +14272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -14263,10 +14302,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -14301,32 +14340,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -15161,18 +15200,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -15527,8 +15566,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -15613,7 +15652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -15631,10 +15670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -15661,10 +15700,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -15699,32 +15738,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -16559,18 +16598,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -16925,8 +16964,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -17012,7 +17051,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:J44"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17029,10 +17068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -17059,10 +17098,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -17073,11 +17112,11 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
@@ -17085,11 +17124,11 @@
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -17097,32 +17136,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -17204,8 +17243,8 @@
       <c r="E9" s="28">
         <v>0</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
+      <c r="F9" s="41">
+        <v>1</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -17268,8 +17307,8 @@
       <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
+      <c r="F11" s="41">
+        <v>2</v>
       </c>
       <c r="G11" s="35">
         <v>0</v>
@@ -17396,17 +17435,17 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
+      <c r="F15" s="41">
+        <v>6</v>
       </c>
       <c r="G15" s="35">
         <v>0</v>
       </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0</v>
+      <c r="H15" s="41">
+        <v>1</v>
+      </c>
+      <c r="I15" s="41">
+        <v>3</v>
       </c>
       <c r="J15" s="35">
         <v>0</v>
@@ -17460,8 +17499,8 @@
       <c r="E17" s="35">
         <v>0</v>
       </c>
-      <c r="F17" s="35">
-        <v>0</v>
+      <c r="F17" s="41">
+        <v>1</v>
       </c>
       <c r="G17" s="35">
         <v>0</v>
@@ -17588,8 +17627,8 @@
       <c r="E21" s="35">
         <v>0</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
+      <c r="F21" s="41">
+        <v>2</v>
       </c>
       <c r="G21" s="35">
         <v>0</v>
@@ -17649,8 +17688,8 @@
       <c r="D23" s="35">
         <v>0</v>
       </c>
-      <c r="E23" s="35">
-        <v>0</v>
+      <c r="E23" s="41">
+        <v>1</v>
       </c>
       <c r="F23" s="35">
         <v>0</v>
@@ -17684,8 +17723,8 @@
       <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F24" s="35">
-        <v>0</v>
+      <c r="F24" s="41">
+        <v>1</v>
       </c>
       <c r="G24" s="35">
         <v>0</v>
@@ -17716,8 +17755,8 @@
       <c r="E25" s="35">
         <v>0</v>
       </c>
-      <c r="F25" s="35">
-        <v>0</v>
+      <c r="F25" s="41">
+        <v>1</v>
       </c>
       <c r="G25" s="35">
         <v>0</v>
@@ -17917,8 +17956,8 @@
       <c r="H31" s="34">
         <v>0</v>
       </c>
-      <c r="I31" s="34">
-        <v>0</v>
+      <c r="I31" s="41">
+        <v>1</v>
       </c>
       <c r="J31" s="34">
         <v>0</v>
@@ -17957,18 +17996,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -18050,8 +18089,8 @@
       <c r="E36" s="28">
         <v>0</v>
       </c>
-      <c r="F36" s="28">
-        <v>0</v>
+      <c r="F36" s="41">
+        <v>1</v>
       </c>
       <c r="G36" s="28">
         <v>0</v>
@@ -18178,8 +18217,8 @@
       <c r="E40" s="35">
         <v>0</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
+      <c r="F40" s="41">
+        <v>2</v>
       </c>
       <c r="G40" s="35">
         <v>0</v>
@@ -18242,14 +18281,14 @@
       <c r="E42" s="35">
         <v>0</v>
       </c>
-      <c r="F42" s="35">
-        <v>0</v>
+      <c r="F42" s="41">
+        <v>2</v>
       </c>
       <c r="G42" s="35">
         <v>0</v>
       </c>
-      <c r="H42" s="35">
-        <v>0</v>
+      <c r="H42" s="41">
+        <v>1</v>
       </c>
       <c r="I42" s="35">
         <v>0</v>
@@ -18323,8 +18362,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -18356,7 +18395,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -18368,11 +18407,11 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
@@ -18380,11 +18419,11 @@
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
@@ -18410,7 +18449,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:J44"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18427,10 +18466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
@@ -18457,10 +18496,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="24">
         <f t="shared" ref="C2:J2" si="0">C46</f>
         <v>0</v>
@@ -18475,19 +18514,19 @@
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
@@ -18495,32 +18534,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -18602,8 +18641,8 @@
       <c r="E9" s="28">
         <v>0</v>
       </c>
-      <c r="F9" s="28">
-        <v>0</v>
+      <c r="F9" s="42">
+        <v>1</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -18666,14 +18705,14 @@
       <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
+      <c r="F11" s="42">
+        <v>1</v>
       </c>
       <c r="G11" s="35">
         <v>0</v>
       </c>
-      <c r="H11" s="35">
-        <v>0</v>
+      <c r="H11" s="42">
+        <v>1</v>
       </c>
       <c r="I11" s="35">
         <v>0</v>
@@ -18794,14 +18833,14 @@
       <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
+      <c r="F15" s="42">
+        <v>6</v>
       </c>
       <c r="G15" s="35">
         <v>0</v>
       </c>
-      <c r="H15" s="35">
-        <v>0</v>
+      <c r="H15" s="42">
+        <v>2</v>
       </c>
       <c r="I15" s="35">
         <v>0</v>
@@ -18858,8 +18897,8 @@
       <c r="E17" s="35">
         <v>0</v>
       </c>
-      <c r="F17" s="35">
-        <v>0</v>
+      <c r="F17" s="42">
+        <v>1</v>
       </c>
       <c r="G17" s="35">
         <v>0</v>
@@ -18954,8 +18993,8 @@
       <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="35">
-        <v>0</v>
+      <c r="F20" s="42">
+        <v>1</v>
       </c>
       <c r="G20" s="35">
         <v>0</v>
@@ -19018,8 +19057,8 @@
       <c r="E22" s="35">
         <v>0</v>
       </c>
-      <c r="F22" s="35">
-        <v>0</v>
+      <c r="F22" s="42">
+        <v>3</v>
       </c>
       <c r="G22" s="35">
         <v>0</v>
@@ -19050,8 +19089,8 @@
       <c r="E23" s="35">
         <v>0</v>
       </c>
-      <c r="F23" s="35">
-        <v>0</v>
+      <c r="F23" s="42">
+        <v>1</v>
       </c>
       <c r="G23" s="35">
         <v>0</v>
@@ -19082,8 +19121,8 @@
       <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F24" s="35">
-        <v>0</v>
+      <c r="F24" s="42">
+        <v>1</v>
       </c>
       <c r="G24" s="35">
         <v>0</v>
@@ -19091,8 +19130,8 @@
       <c r="H24" s="35">
         <v>0</v>
       </c>
-      <c r="I24" s="35">
-        <v>0</v>
+      <c r="I24" s="42">
+        <v>1</v>
       </c>
       <c r="J24" s="35">
         <v>0</v>
@@ -19242,17 +19281,17 @@
       <c r="E29" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
-        <v>0</v>
+      <c r="F29" s="42">
+        <v>2</v>
+      </c>
+      <c r="G29" s="42">
+        <v>1</v>
       </c>
       <c r="H29" s="35">
         <v>0</v>
       </c>
-      <c r="I29" s="35">
-        <v>0</v>
+      <c r="I29" s="42">
+        <v>1</v>
       </c>
       <c r="J29" s="35">
         <v>0</v>
@@ -19274,8 +19313,8 @@
       <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <v>0</v>
+      <c r="F30" s="42">
+        <v>3</v>
       </c>
       <c r="G30" s="35">
         <v>0</v>
@@ -19355,18 +19394,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -19480,8 +19519,8 @@
       <c r="E37" s="35">
         <v>0</v>
       </c>
-      <c r="F37" s="35">
-        <v>0</v>
+      <c r="F37" s="42">
+        <v>1</v>
       </c>
       <c r="G37" s="35">
         <v>0</v>
@@ -19512,8 +19551,8 @@
       <c r="E38" s="35">
         <v>0</v>
       </c>
-      <c r="F38" s="35">
-        <v>0</v>
+      <c r="F38" s="42">
+        <v>1</v>
       </c>
       <c r="G38" s="35">
         <v>0</v>
@@ -19544,8 +19583,8 @@
       <c r="E39" s="35">
         <v>0</v>
       </c>
-      <c r="F39" s="35">
-        <v>0</v>
+      <c r="F39" s="42">
+        <v>1</v>
       </c>
       <c r="G39" s="35">
         <v>0</v>
@@ -19576,8 +19615,8 @@
       <c r="E40" s="35">
         <v>0</v>
       </c>
-      <c r="F40" s="35">
-        <v>0</v>
+      <c r="F40" s="42">
+        <v>2</v>
       </c>
       <c r="G40" s="35">
         <v>0</v>
@@ -19585,8 +19624,8 @@
       <c r="H40" s="35">
         <v>0</v>
       </c>
-      <c r="I40" s="35">
-        <v>0</v>
+      <c r="I40" s="42">
+        <v>1</v>
       </c>
       <c r="J40" s="35">
         <v>0</v>
@@ -19611,8 +19650,8 @@
       <c r="F41" s="35">
         <v>0</v>
       </c>
-      <c r="G41" s="35">
-        <v>0</v>
+      <c r="G41" s="42">
+        <v>1</v>
       </c>
       <c r="H41" s="35">
         <v>0</v>
@@ -19640,11 +19679,11 @@
       <c r="E42" s="35">
         <v>0</v>
       </c>
-      <c r="F42" s="35">
-        <v>0</v>
-      </c>
-      <c r="G42" s="35">
-        <v>0</v>
+      <c r="F42" s="42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="42">
+        <v>1</v>
       </c>
       <c r="H42" s="35">
         <v>0</v>
@@ -19721,8 +19760,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="25" t="s">
         <v>8</v>
       </c>
@@ -19754,7 +19793,7 @@
       </c>
       <c r="B46" s="27">
         <f>SUM(C46:J46)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C46" s="24">
         <f t="shared" ref="C46:F46" si="1">SUM(C8:C44)</f>
@@ -19770,19 +19809,19 @@
       </c>
       <c r="F46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G46" s="24">
         <f>SUM(G8:G44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" ref="H46:J46" si="2">SUM(H8:H44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="24">
         <f t="shared" si="2"/>
